--- a/biology/Botanique/Ananas_sagenaria/Ananas_sagenaria.xlsx
+++ b/biology/Botanique/Ananas_sagenaria/Ananas_sagenaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ananas sagenaria est une espèce de plantes à fleurs de la famille des Bromeliaceae.
 </t>
@@ -511,15 +523,17 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ananas macrodontes E.Morren[2] ;
-Ananas microcephalus Bertoni[2] ;
-Ananas silvestris (Vell.) F.J.Müll.[2] ;
-Bromelia sagenaria Arruda[2] ;
-Bromelia silvestris Vell.[2] ;
-Pseudananas macrodontes (E.Morren) Harms[2] ;
-Pseudananas sagenarius (Arruda) Camargo[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ananas macrodontes E.Morren ;
+Ananas microcephalus Bertoni ;
+Ananas silvestris (Vell.) F.J.Müll. ;
+Bromelia sagenaria Arruda ;
+Bromelia silvestris Vell. ;
+Pseudananas macrodontes (E.Morren) Harms ;
+Pseudananas sagenarius (Arruda) Camargo.</t>
         </is>
       </c>
     </row>
@@ -547,9 +561,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Argentine, en Bolivie, au Brésil, en Équateur et au Paraguay[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Argentine, en Bolivie, au Brésil, en Équateur et au Paraguay.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est hémicryptophyte[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est hémicryptophyte.
 </t>
         </is>
       </c>
